--- a/BackTest/2019-11-20 BackTest FAB.xlsx
+++ b/BackTest/2019-11-20 BackTest FAB.xlsx
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2201,14 +2201,20 @@
         <v>10.74999999999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2236,14 +2242,20 @@
         <v>10.74999999999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +2283,20 @@
         <v>10.89999999999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2306,14 +2324,20 @@
         <v>10.99999999999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2341,14 +2365,20 @@
         <v>11.04999999999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2406,20 @@
         <v>11.09999999999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2411,14 +2447,20 @@
         <v>11.09999999999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2446,14 +2488,20 @@
         <v>11.09999999999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2481,14 +2529,20 @@
         <v>10.94999999999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +2577,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2616,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2655,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2628,7 +2694,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2663,7 +2733,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2698,7 +2772,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2733,7 +2811,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2850,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2803,7 +2889,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +2928,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2873,7 +2967,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +3006,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +3045,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2978,7 +3084,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3013,7 +3123,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3048,7 +3162,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3201,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3118,7 +3240,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3279,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3318,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3223,7 +3357,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3258,7 +3396,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3435,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3474,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3513,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3552,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3591,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3630,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3669,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3708,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3747,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3786,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3825,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +3864,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +3903,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +3942,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +3981,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +4020,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +4059,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +4098,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +4137,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4176,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4215,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4254,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4293,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4332,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4371,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4410,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4449,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4488,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4527,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4566,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4605,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4644,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4683,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4722,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4761,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4800,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4839,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4878,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +4917,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4956,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4995,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +5034,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +5073,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +5112,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +5151,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5190,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5229,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5268,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5307,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5346,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5385,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5424,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5463,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5502,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5541,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5580,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5619,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5658,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5697,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5736,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5775,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5814,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5853,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5892,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5931,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5970,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6009,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +6048,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +6087,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +6126,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +6165,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +6204,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +6243,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +6282,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6321,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6360,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6399,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6438,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6477,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6516,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6555,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6594,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6633,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6672,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6711,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6750,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6789,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6828,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6867,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6906,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6945,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6984,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +7023,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +7062,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +7101,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +7140,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +7179,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +7218,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +7257,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7296,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7335,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7374,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7413,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7452,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7491,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7530,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7569,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7608,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7647,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7686,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7725,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7764,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7803,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7842,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7881,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7920,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7959,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7998,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +8037,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +8076,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +8115,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +8154,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +8193,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +8232,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +8271,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +8310,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +8349,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +8388,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +8427,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +8466,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +8505,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8544,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8583,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8622,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8661,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8700,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8053,7 +8739,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8778,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8817,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8856,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8895,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8934,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +8973,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +9012,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +9051,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8368,7 +9090,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +9129,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +9168,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +9207,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +9246,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8543,7 +9285,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +9324,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +9363,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +9402,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +9441,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8718,7 +9480,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +9519,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9558,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +9597,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9636,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8893,7 +9675,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8928,7 +9714,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8963,7 +9753,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9792,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9831,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9870,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9103,7 +9909,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9948,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9173,7 +9987,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9208,7 +10026,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +10065,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9278,7 +10104,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +10143,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +10182,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +10221,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +10260,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +10299,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +10338,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +10377,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +10416,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +10455,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +10494,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10533,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +10572,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +10611,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10650,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10689,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10728,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +10767,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +10806,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10845,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10884,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10923,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10048,7 +10962,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10083,7 +11001,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10118,7 +11040,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10153,7 +11079,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +11118,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +11157,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10258,7 +11196,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +11235,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10328,7 +11274,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +11313,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +11352,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +11391,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +11430,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10503,7 +11469,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10538,7 +11508,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10573,7 +11547,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10608,7 +11586,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +11625,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10678,7 +11664,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11703,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +11742,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10783,7 +11781,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10818,7 +11820,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10853,7 +11859,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10888,7 +11898,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10923,7 +11937,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10958,7 +11976,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10993,7 +12015,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11028,7 +12054,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11063,7 +12093,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11098,7 +12132,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11133,7 +12171,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11168,7 +12210,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11203,7 +12249,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11238,7 +12288,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11273,7 +12327,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11308,7 +12366,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11343,7 +12405,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12444,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11413,7 +12483,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11448,7 +12522,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11483,7 +12561,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11518,7 +12600,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11553,7 +12639,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11588,7 +12678,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11623,7 +12717,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11658,7 +12756,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11693,7 +12795,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11728,7 +12834,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11763,7 +12873,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11798,7 +12912,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11833,7 +12951,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +12990,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -11903,7 +13029,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11938,7 +13068,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -11973,7 +13107,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12008,7 +13146,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12043,7 +13185,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12078,7 +13224,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12113,7 +13263,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12148,7 +13302,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12183,7 +13341,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12218,7 +13380,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12253,7 +13419,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12288,7 +13458,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12323,7 +13497,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12358,7 +13536,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12393,7 +13575,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12428,7 +13614,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12463,7 +13653,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12498,7 +13692,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +13731,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12568,7 +13770,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12603,7 +13809,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12638,7 +13848,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12673,7 +13887,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12708,7 +13926,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12743,7 +13965,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12778,7 +14004,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12813,7 +14043,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -12848,7 +14082,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -12883,7 +14121,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -12918,7 +14160,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -12953,7 +14199,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -12988,7 +14238,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13023,7 +14277,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13058,7 +14316,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13093,7 +14355,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13128,7 +14394,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13163,7 +14433,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13198,7 +14472,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13233,7 +14511,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13268,7 +14550,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13303,7 +14589,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13338,7 +14628,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13373,7 +14667,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13408,7 +14706,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13443,7 +14745,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13478,7 +14784,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13513,7 +14823,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13548,7 +14862,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13583,7 +14901,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13618,7 +14940,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13653,7 +14979,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +15018,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13723,7 +15057,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13758,7 +15096,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13793,7 +15135,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -13828,7 +15174,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -13863,7 +15213,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -13898,7 +15252,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -13933,7 +15291,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -13968,7 +15330,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14003,7 +15369,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14038,7 +15408,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14073,7 +15447,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14108,7 +15486,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14143,7 +15525,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14178,7 +15564,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14213,7 +15603,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14248,7 +15642,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14283,7 +15681,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14318,7 +15720,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14353,7 +15759,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14388,7 +15798,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14423,7 +15837,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14458,7 +15876,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14493,7 +15915,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14528,7 +15954,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +15993,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14598,7 +16032,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14633,7 +16071,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14668,7 +16110,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14703,7 +16149,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14738,7 +16188,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14773,7 +16227,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14808,7 +16266,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +16305,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +16344,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -14913,7 +16383,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +16422,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -14983,7 +16461,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +16500,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15053,7 +16539,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15088,7 +16578,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15123,7 +16617,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15158,7 +16656,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15193,7 +16695,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15228,7 +16734,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +16773,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15298,7 +16812,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +16851,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15368,7 +16890,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15396,18 +16922,16 @@
         <v>9.509999999999987</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>9.58</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M429" t="n">
@@ -15437,14 +16961,12 @@
         <v>9.444999999999986</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
@@ -15478,14 +17000,12 @@
         <v>9.374999999999986</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>9.44</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
@@ -15519,14 +17039,12 @@
         <v>9.304999999999987</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>9.85</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
@@ -15560,14 +17078,12 @@
         <v>9.309999999999986</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>9.31</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
@@ -15601,14 +17117,12 @@
         <v>9.419999999999984</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>9.529999999999999</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
@@ -15642,14 +17156,12 @@
         <v>9.529999999999983</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>9.33</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
@@ -15683,14 +17195,12 @@
         <v>9.544999999999984</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>9.48</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
@@ -15724,14 +17234,12 @@
         <v>9.464999999999982</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
@@ -15765,14 +17273,12 @@
         <v>9.459999999999983</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>9.550000000000001</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
@@ -15806,14 +17312,12 @@
         <v>9.569999999999983</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
@@ -15847,14 +17351,12 @@
         <v>9.489999999999982</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
         <is>
@@ -15888,14 +17390,12 @@
         <v>9.404999999999982</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
@@ -15929,14 +17429,12 @@
         <v>9.429999999999982</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
@@ -15970,14 +17468,12 @@
         <v>9.514999999999983</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
@@ -16011,14 +17507,12 @@
         <v>9.594999999999985</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
@@ -16052,14 +17546,12 @@
         <v>9.599999999999985</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
@@ -16093,14 +17585,12 @@
         <v>9.644999999999985</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
@@ -16134,14 +17624,12 @@
         <v>9.684999999999985</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>9.67</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
@@ -16175,14 +17663,12 @@
         <v>9.804999999999986</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>9.699999999999999</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
@@ -16216,14 +17702,12 @@
         <v>9.739999999999986</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>9.93</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
@@ -16257,14 +17741,12 @@
         <v>9.594999999999986</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>9.56</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
@@ -16298,14 +17780,12 @@
         <v>9.649999999999986</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>9.720000000000001</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
@@ -16339,14 +17819,12 @@
         <v>9.639999999999986</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>9.869999999999999</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
@@ -16380,14 +17858,12 @@
         <v>9.579999999999986</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>9.789999999999999</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
@@ -16421,14 +17897,12 @@
         <v>9.574999999999985</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
@@ -16462,14 +17936,12 @@
         <v>9.589999999999986</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>9.57</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
@@ -16503,14 +17975,12 @@
         <v>9.574999999999985</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>9.58</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
@@ -16544,14 +18014,12 @@
         <v>9.659999999999986</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>9.74</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
@@ -16585,14 +18053,12 @@
         <v>9.829999999999988</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>9.92</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
@@ -16626,14 +18092,12 @@
         <v>9.859999999999989</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>9.77</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
@@ -16667,14 +18131,12 @@
         <v>9.734999999999989</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>9.789999999999999</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
@@ -16708,14 +18170,12 @@
         <v>9.699999999999989</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>9.92</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
@@ -16749,14 +18209,12 @@
         <v>9.769999999999989</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>9.800000000000001</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
@@ -16790,14 +18248,12 @@
         <v>9.879999999999988</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>9.67</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
@@ -16831,14 +18287,12 @@
         <v>9.944999999999986</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>9.82</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
@@ -16872,14 +18326,12 @@
         <v>9.904999999999985</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>9.869999999999999</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
@@ -16913,14 +18365,12 @@
         <v>9.869999999999987</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>9.94</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
@@ -16954,14 +18404,12 @@
         <v>9.879999999999988</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>9.94</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
@@ -17697,14 +19145,12 @@
         <v>9.664999999999992</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>9.68</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
@@ -17738,14 +19184,12 @@
         <v>9.809999999999992</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>9.699999999999999</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
@@ -17779,14 +19223,12 @@
         <v>9.979999999999992</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>9.98</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
@@ -17820,14 +19262,12 @@
         <v>9.979999999999992</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>9.98</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
@@ -17861,14 +19301,12 @@
         <v>9.834999999999992</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>9.68</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
@@ -22738,14 +24176,12 @@
         <v>9.79000000000001</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
@@ -22818,14 +24254,12 @@
         <v>9.640000000000009</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>9.640000000000001</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
@@ -22859,14 +24293,12 @@
         <v>9.66500000000001</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="n">
-        <v>9.69</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
@@ -22900,14 +24332,12 @@
         <v>9.75500000000001</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="n">
-        <v>9.82</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
@@ -22941,14 +24371,12 @@
         <v>9.705000000000009</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>9.65</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
@@ -22982,14 +24410,12 @@
         <v>9.655000000000008</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>9.720000000000001</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
@@ -23023,14 +24449,12 @@
         <v>9.765000000000009</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>9.81</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
@@ -23064,14 +24488,12 @@
         <v>9.72000000000001</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>9.640000000000001</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
@@ -23105,14 +24527,12 @@
         <v>9.61000000000001</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
@@ -23146,14 +24566,12 @@
         <v>9.590000000000011</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
@@ -23187,14 +24605,12 @@
         <v>9.590000000000011</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>9.470000000000001</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
@@ -23228,14 +24644,12 @@
         <v>9.56500000000001</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>9.539999999999999</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
@@ -23269,14 +24683,12 @@
         <v>9.56500000000001</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
@@ -23310,14 +24722,12 @@
         <v>9.490000000000011</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>9.52</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
@@ -23351,14 +24761,12 @@
         <v>9.390000000000011</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
@@ -23392,14 +24800,12 @@
         <v>9.455000000000011</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
@@ -23433,14 +24839,12 @@
         <v>9.525000000000009</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>9.65</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
@@ -23474,14 +24878,12 @@
         <v>9.520000000000008</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>9.51</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
@@ -23515,14 +24917,12 @@
         <v>9.525000000000009</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>9.539999999999999</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
@@ -23556,14 +24956,12 @@
         <v>9.54000000000001</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="n">
-        <v>9.539999999999999</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
@@ -23597,14 +24995,12 @@
         <v>9.525000000000009</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="n">
-        <v>9.51</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
@@ -23638,14 +25034,12 @@
         <v>9.565000000000008</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>9.51</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
@@ -23679,14 +25073,12 @@
         <v>9.560000000000009</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
@@ -23720,14 +25112,12 @@
         <v>9.57500000000001</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>9.51</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
@@ -23761,14 +25151,12 @@
         <v>9.57500000000001</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>9.57</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
@@ -23802,14 +25190,12 @@
         <v>9.500000000000011</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>9.52</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
@@ -23843,14 +25229,12 @@
         <v>9.660000000000011</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>9.619999999999999</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
@@ -23884,14 +25268,12 @@
         <v>9.79000000000001</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="n">
-        <v>9.789999999999999</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
@@ -23925,14 +25307,12 @@
         <v>9.73500000000001</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="n">
-        <v>9.630000000000001</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
@@ -23966,14 +25346,12 @@
         <v>9.710000000000012</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
       </c>
-      <c r="J645" t="n">
-        <v>9.75</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
@@ -24007,14 +25385,12 @@
         <v>9.745000000000012</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
       </c>
-      <c r="J646" t="n">
-        <v>9.69</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
@@ -24048,14 +25424,12 @@
         <v>9.740000000000011</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
       </c>
-      <c r="J647" t="n">
-        <v>9.75</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
@@ -24089,14 +25463,12 @@
         <v>9.70000000000001</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
-      <c r="J648" t="n">
-        <v>9.710000000000001</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
@@ -24130,14 +25502,12 @@
         <v>9.74500000000001</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
       </c>
-      <c r="J649" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
@@ -24171,14 +25541,12 @@
         <v>9.695000000000009</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
       </c>
-      <c r="J650" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
@@ -24212,14 +25580,12 @@
         <v>9.68000000000001</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
       </c>
-      <c r="J651" t="n">
-        <v>9.779999999999999</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
@@ -24253,14 +25619,12 @@
         <v>9.765000000000011</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
       </c>
-      <c r="J652" t="n">
-        <v>9.69</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
@@ -24294,14 +25658,12 @@
         <v>9.68000000000001</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
       </c>
-      <c r="J653" t="n">
-        <v>9.699999999999999</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
@@ -24335,14 +25697,12 @@
         <v>9.505000000000011</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
       </c>
-      <c r="J654" t="n">
-        <v>9.550000000000001</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
@@ -24376,14 +25736,12 @@
         <v>9.420000000000011</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
       </c>
-      <c r="J655" t="n">
-        <v>9.460000000000001</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
@@ -24417,14 +25775,12 @@
         <v>9.41500000000001</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
       </c>
-      <c r="J656" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
@@ -24458,14 +25814,12 @@
         <v>9.495000000000008</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
       </c>
-      <c r="J657" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr">
         <is>
@@ -24499,14 +25853,12 @@
         <v>9.485000000000008</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
       </c>
-      <c r="J658" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
@@ -24540,14 +25892,12 @@
         <v>9.405000000000008</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
       </c>
-      <c r="J659" t="n">
-        <v>9.48</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
@@ -24581,14 +25931,12 @@
         <v>9.405000000000008</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
       </c>
-      <c r="J660" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
@@ -24622,14 +25970,12 @@
         <v>9.405000000000008</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
       </c>
-      <c r="J661" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
@@ -24663,14 +26009,12 @@
         <v>9.405000000000008</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
       </c>
-      <c r="J662" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
@@ -24704,14 +26048,12 @@
         <v>9.390000000000008</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
       </c>
-      <c r="J663" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
@@ -24745,14 +26087,12 @@
         <v>9.590000000000007</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
       </c>
-      <c r="J664" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
@@ -24786,14 +26126,12 @@
         <v>9.715000000000007</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
       </c>
-      <c r="J665" t="n">
-        <v>9.640000000000001</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
@@ -24827,14 +26165,12 @@
         <v>9.635000000000009</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
       </c>
-      <c r="J666" t="n">
-        <v>9.67</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr">
         <is>
@@ -24868,14 +26204,12 @@
         <v>9.63000000000001</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
       </c>
-      <c r="J667" t="n">
-        <v>9.630000000000001</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr">
         <is>
@@ -24909,14 +26243,12 @@
         <v>9.615000000000009</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
       </c>
-      <c r="J668" t="n">
-        <v>9.609999999999999</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr">
         <is>
@@ -24950,14 +26282,12 @@
         <v>9.66500000000001</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="n">
-        <v>9.67</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr">
         <is>
@@ -24991,14 +26321,12 @@
         <v>9.730000000000011</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="n">
-        <v>9.73</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
@@ -25032,14 +26360,12 @@
         <v>9.775000000000011</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
       </c>
-      <c r="J671" t="n">
-        <v>9.73</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr">
         <is>
@@ -25073,14 +26399,12 @@
         <v>9.900000000000011</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
       </c>
-      <c r="J672" t="n">
-        <v>9.82</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
       <c r="L672" t="inlineStr">
         <is>
@@ -25114,14 +26438,12 @@
         <v>9.900000000000011</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
       </c>
-      <c r="J673" t="n">
-        <v>9.82</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr">
         <is>
@@ -25155,14 +26477,12 @@
         <v>9.895000000000012</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="n">
-        <v>9.82</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
@@ -25196,14 +26516,12 @@
         <v>9.975000000000012</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
       </c>
-      <c r="J675" t="n">
-        <v>9.970000000000001</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
       <c r="L675" t="inlineStr">
         <is>
@@ -25237,14 +26555,12 @@
         <v>9.935000000000013</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
       </c>
-      <c r="J676" t="n">
-        <v>9.890000000000001</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
@@ -25278,14 +26594,12 @@
         <v>9.890000000000013</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
       </c>
-      <c r="J677" t="n">
-        <v>9.890000000000001</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
       <c r="L677" t="inlineStr">
         <is>
@@ -25319,14 +26633,12 @@
         <v>9.890000000000013</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
       </c>
-      <c r="J678" t="n">
-        <v>9.82</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
@@ -25360,14 +26672,12 @@
         <v>9.855000000000013</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
       </c>
-      <c r="J679" t="n">
-        <v>9.890000000000001</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
@@ -25401,14 +26711,12 @@
         <v>9.800000000000011</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
       </c>
-      <c r="J680" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
       <c r="L680" t="inlineStr">
         <is>
@@ -25442,14 +26750,12 @@
         <v>9.745000000000012</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
       </c>
-      <c r="J681" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
       <c r="L681" t="inlineStr">
         <is>
@@ -25483,14 +26789,12 @@
         <v>9.79000000000001</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
       </c>
-      <c r="J682" t="n">
-        <v>9.67</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
@@ -25524,14 +26828,12 @@
         <v>9.77000000000001</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
       </c>
-      <c r="J683" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
@@ -25565,14 +26867,12 @@
         <v>9.77000000000001</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
       </c>
-      <c r="J684" t="n">
-        <v>9.859999999999999</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
@@ -25606,14 +26906,12 @@
         <v>9.77000000000001</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
       </c>
-      <c r="J685" t="n">
-        <v>9.67</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
@@ -25647,14 +26945,12 @@
         <v>9.635000000000012</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
       </c>
-      <c r="J686" t="n">
-        <v>9.65</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr">
         <is>
@@ -25688,14 +26984,12 @@
         <v>9.600000000000012</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
       </c>
-      <c r="J687" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr">
         <is>
@@ -25729,14 +27023,12 @@
         <v>9.500000000000011</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
       </c>
-      <c r="J688" t="n">
-        <v>9.58</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr">
         <is>
@@ -25770,14 +27062,12 @@
         <v>9.420000000000009</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
       </c>
-      <c r="J689" t="n">
-        <v>9.44</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr">
         <is>
@@ -25811,14 +27101,12 @@
         <v>9.50500000000001</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
       </c>
-      <c r="J690" t="n">
-        <v>9.56</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
@@ -25852,14 +27140,12 @@
         <v>9.70000000000001</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
       </c>
-      <c r="J691" t="n">
-        <v>9.83</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr">
         <is>
@@ -25893,14 +27179,12 @@
         <v>9.71000000000001</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
       </c>
-      <c r="J692" t="n">
-        <v>9.59</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
       <c r="L692" t="inlineStr">
         <is>
@@ -25934,14 +27218,12 @@
         <v>9.615000000000009</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
       </c>
-      <c r="J693" t="n">
-        <v>9.609999999999999</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr">
         <is>
@@ -25975,14 +27257,12 @@
         <v>9.650000000000009</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
       </c>
-      <c r="J694" t="n">
-        <v>9.640000000000001</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
       <c r="L694" t="inlineStr">
         <is>
@@ -26016,14 +27296,12 @@
         <v>9.660000000000009</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="n">
-        <v>9.67</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
       <c r="L695" t="inlineStr">
         <is>
@@ -26057,14 +27335,12 @@
         <v>9.635000000000009</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
       </c>
-      <c r="J696" t="n">
-        <v>9.609999999999999</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
       <c r="L696" t="inlineStr">
         <is>
@@ -26098,14 +27374,12 @@
         <v>9.565000000000008</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="n">
-        <v>9.56</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
       <c r="L697" t="inlineStr">
         <is>
@@ -26139,14 +27413,12 @@
         <v>9.590000000000009</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
       </c>
-      <c r="J698" t="n">
-        <v>9.58</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr">
         <is>
@@ -26180,14 +27452,12 @@
         <v>9.640000000000009</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
-      <c r="J699" t="n">
-        <v>9.619999999999999</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
       <c r="L699" t="inlineStr">
         <is>
@@ -26221,14 +27491,12 @@
         <v>9.640000000000009</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
       </c>
-      <c r="J700" t="n">
-        <v>9.66</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr">
         <is>
@@ -26262,14 +27530,12 @@
         <v>9.815000000000012</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
-      <c r="J701" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr">
         <is>
@@ -26303,14 +27569,12 @@
         <v>9.960000000000012</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
       </c>
-      <c r="J702" t="n">
-        <v>9.960000000000001</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr">
         <is>
@@ -26344,14 +27608,12 @@
         <v>9.965000000000011</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
       </c>
-      <c r="J703" t="n">
-        <v>9.949999999999999</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
       <c r="L703" t="inlineStr">
         <is>
@@ -26385,14 +27647,12 @@
         <v>9.970000000000011</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
       </c>
-      <c r="J704" t="n">
-        <v>9.960000000000001</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr">
         <is>
@@ -26426,14 +27686,12 @@
         <v>9.900000000000011</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
       </c>
-      <c r="J705" t="n">
-        <v>9.800000000000001</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
       <c r="L705" t="inlineStr">
         <is>
@@ -26467,14 +27725,12 @@
         <v>9.840000000000011</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
       </c>
-      <c r="J706" t="n">
-        <v>9.83</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr">
         <is>
@@ -26508,14 +27764,12 @@
         <v>9.83500000000001</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="n">
-        <v>9.83</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr">
         <is>
@@ -26549,14 +27803,12 @@
         <v>9.840000000000009</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="n">
-        <v>9.880000000000001</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr">
         <is>
@@ -26590,14 +27842,12 @@
         <v>9.88000000000001</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="n">
-        <v>9.85</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr">
         <is>
@@ -26631,14 +27881,12 @@
         <v>9.945000000000011</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="n">
-        <v>9.970000000000001</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr">
         <is>
@@ -26672,14 +27920,12 @@
         <v>9.980000000000011</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="n">
-        <v>9.98</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr">
         <is>

--- a/BackTest/2019-11-20 BackTest FAB.xlsx
+++ b/BackTest/2019-11-20 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1936,7 +1936,7 @@
         <v>5640865.419465235</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3866910.565431901</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>3866910.565431901</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3981290.041131901</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4055197.237531901</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>5377328.7748319</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>5914395.622131901</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>5663530.823331901</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>5663530.823331901</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5536188.9255319</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>5762682.3391319</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>5810131.935931901</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>5202944.6229319</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>5202944.6229319</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>5262366.513031901</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>2225095.971479798</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>2820835.750779798</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1959863.241179798</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2762852.859684683</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-4573994.275464684</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-8608860.170564683</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-11298690.45731644</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-8671980.771061737</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9551450.798661737</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-8758869.519761737</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-8758869.519761737</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-9975513.805951828</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-11368367.31835183</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-10632565.75417861</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-12444635.70457861</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-11082311.78605409</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-10331614.528745</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-10728746.92282856</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-10728746.92282856</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -13618,11 +13618,17 @@
         <v>-23947037.07540836</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>9.82</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +13661,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13698,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +13735,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13768,17 @@
         <v>-23989562.03550836</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>9.789999999999999</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +13811,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +13848,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +13885,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +13922,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +13959,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +13996,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14033,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14070,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14107,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14144,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14181,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14218,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14255,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14292,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14329,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14366,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14403,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14436,17 @@
         <v>-24130079.73160836</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14479,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14516,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14553,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14590,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14627,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14664,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14701,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14738,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +14775,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +14812,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +14849,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14882,17 @@
         <v>-24224713.23380836</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14921,17 @@
         <v>-24224713.23380836</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +14960,17 @@
         <v>-24148420.13890836</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14999,17 @@
         <v>-24148332.13890836</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +15038,17 @@
         <v>-24157117.38680836</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15081,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15118,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15155,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15192,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15225,17 @@
         <v>-24142540.54060836</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>9.869999999999999</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15264,17 @@
         <v>-24142488.54060836</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>9.91</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15303,17 @@
         <v>-24142436.54060836</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>9.94</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15342,17 @@
         <v>-24142437.45560836</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15381,17 @@
         <v>-24158995.46930836</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>9.869999999999999</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15420,17 @@
         <v>-24158943.46930836</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>9.84</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15459,17 @@
         <v>-24181847.07860836</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>9.960000000000001</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15498,17 @@
         <v>-24182119.18740836</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15537,17 @@
         <v>-24182119.18740836</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>9.779999999999999</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15576,17 @@
         <v>-24192365.08910836</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>9.779999999999999</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15615,17 @@
         <v>-24459552.04300836</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>9.76</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15654,17 @@
         <v>-24043243.49010836</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>9.73</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15693,17 @@
         <v>-24043576.49010836</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15732,17 @@
         <v>-24044908.49010836</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15771,17 @@
         <v>-24048693.49690836</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>9.83</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +15810,17 @@
         <v>-24048360.49690836</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>9.710000000000001</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15849,17 @@
         <v>-24048693.49690836</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>9.9</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15888,17 @@
         <v>-24013854.71780836</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +15927,17 @@
         <v>-24014187.71780836</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +15966,17 @@
         <v>-24022500.86850836</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +16005,17 @@
         <v>-24022448.86850836</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +16044,17 @@
         <v>-24027795.73330836</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>9.859999999999999</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +16083,17 @@
         <v>-24027795.73330836</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16122,17 @@
         <v>-24027847.73330836</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16161,17 @@
         <v>-24027255.73330836</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>9.74</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +16200,17 @@
         <v>-24027203.73330836</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16239,17 @@
         <v>-23927610.08540836</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>9.91</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +16278,17 @@
         <v>-23927558.08540836</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>9.93</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16317,17 @@
         <v>-23927610.08540836</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16356,17 @@
         <v>-23927662.08540836</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>9.9</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16395,17 @@
         <v>-23927301.63490836</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16434,17 @@
         <v>-23928562.35970836</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16473,17 @@
         <v>-23896584.06820836</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>9.77</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16512,17 @@
         <v>-23915388.64050836</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>9.779999999999999</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16551,17 @@
         <v>-23915336.64050836</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>9.710000000000001</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16590,17 @@
         <v>-23894185.56150836</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>9.91</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16629,17 @@
         <v>-23894185.56150836</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16668,17 @@
         <v>-23696139.51930836</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16707,17 @@
         <v>-23761030.30730836</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16746,17 @@
         <v>-23772374.40020836</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>9.93</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16785,17 @@
         <v>-24108403.50430836</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>9.75</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +16824,17 @@
         <v>-24242795.82020836</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>9.66</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +16863,17 @@
         <v>-24253234.23360836</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>9.6</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +16902,17 @@
         <v>-24253234.23360836</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>9.58</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +16941,17 @@
         <v>-25367327.58760836</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>9.58</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16522,11 +16980,17 @@
         <v>-25316767.46440836</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>9.44</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16555,11 +17019,17 @@
         <v>-25520937.16540836</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16588,11 +17058,17 @@
         <v>-25456771.76670836</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16621,11 +17097,17 @@
         <v>-25456771.76670836</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>9.31</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16654,11 +17136,17 @@
         <v>-25456718.76670836</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>9.31</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +17175,17 @@
         <v>-25456718.76670836</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>9.529999999999999</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16720,11 +17214,17 @@
         <v>-25280865.37530836</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>9.529999999999999</v>
+      </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16753,11 +17253,17 @@
         <v>-25339267.73270836</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>9.56</v>
+      </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16786,11 +17292,17 @@
         <v>-25335400.86320836</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>9.369999999999999</v>
+      </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16819,11 +17331,17 @@
         <v>-25285400.86320836</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16852,7 +17370,7 @@
         <v>-25285520.86320836</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>9.59</v>
@@ -16860,7 +17378,7 @@
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L499" t="n">
@@ -16891,7 +17409,7 @@
         <v>-25281998.75750836</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>9.390000000000001</v>
@@ -16930,7 +17448,7 @@
         <v>-25281825.75750836</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>9.42</v>
@@ -16969,7 +17487,7 @@
         <v>-25281772.75750836</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>9.44</v>
@@ -17008,7 +17526,7 @@
         <v>-25216026.83170836</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>9.59</v>
@@ -17047,7 +17565,7 @@
         <v>-25216026.83170836</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>9.6</v>
@@ -17086,9 +17604,11 @@
         <v>-25215974.83170836</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>9.6</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17123,9 +17643,11 @@
         <v>-25337596.95610837</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>9.69</v>
+      </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17160,9 +17682,11 @@
         <v>-25136408.90440837</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>9.68</v>
+      </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17197,9 +17721,11 @@
         <v>-25153787.14910837</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>9.93</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17234,9 +17760,11 @@
         <v>-25152880.33620837</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17271,9 +17799,11 @@
         <v>-25144577.61430836</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>9.640000000000001</v>
+      </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17308,9 +17838,11 @@
         <v>-25145672.82080837</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>9.66</v>
+      </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -17345,9 +17877,11 @@
         <v>-25146502.55530836</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>9.619999999999999</v>
+      </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17382,9 +17916,11 @@
         <v>-25145607.42930837</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>9.539999999999999</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17419,9 +17955,11 @@
         <v>-25146389.87810837</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -17456,9 +17994,11 @@
         <v>-25117893.81570837</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>9.57</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17493,9 +18033,11 @@
         <v>-25117841.81570837</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>9.58</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17530,9 +18072,11 @@
         <v>-25117789.81570837</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>9.74</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17567,9 +18111,11 @@
         <v>-25119591.43350837</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17604,9 +18150,11 @@
         <v>-25171567.23980837</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17641,9 +18189,11 @@
         <v>-25170643.23710837</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>9.67</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17678,9 +18228,11 @@
         <v>-25089807.21400837</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>9.73</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -17715,9 +18267,11 @@
         <v>-24957131.77940837</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -17752,9 +18306,11 @@
         <v>-24958289.32220837</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -17789,9 +18345,11 @@
         <v>-24965870.79880837</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>9.94</v>
+      </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18492,9 +19050,11 @@
         <v>-25215123.26960837</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -18529,9 +19089,11 @@
         <v>-25206039.59200837</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>9.619999999999999</v>
+      </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -18566,9 +19128,11 @@
         <v>-25248956.62850837</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>9.69</v>
+      </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -18603,9 +19167,11 @@
         <v>-25243906.62850837</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>9.640000000000001</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -18640,9 +19206,11 @@
         <v>-25243906.62850837</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -18677,9 +19245,11 @@
         <v>-25243906.62850837</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -18714,9 +19284,11 @@
         <v>-25245456.10100837</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -18751,9 +19323,11 @@
         <v>-25242418.56070837</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>9.69</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -18788,9 +19362,11 @@
         <v>-25242418.56070837</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -18825,9 +19401,11 @@
         <v>-25242418.56070837</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -18862,9 +19440,11 @@
         <v>-25242912.96850837</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -18899,9 +19479,11 @@
         <v>-25242421.54440837</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -18936,9 +19518,11 @@
         <v>-25263314.59320837</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -18973,9 +19557,11 @@
         <v>-25263503.14580837</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>9.94</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19010,9 +19596,11 @@
         <v>-25269884.34880837</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19047,9 +19635,11 @@
         <v>-25269779.34880837</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19084,9 +19674,11 @@
         <v>-25268896.34880837</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19121,9 +19713,11 @@
         <v>-25268497.23070837</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>9.93</v>
+      </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19158,9 +19752,11 @@
         <v>-25268065.58340837</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19195,9 +19791,11 @@
         <v>-25268573.50930837</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19232,9 +19830,11 @@
         <v>-25268523.50930837</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>9.84</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19269,9 +19869,11 @@
         <v>-25268523.50930837</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>9.94</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19306,9 +19908,11 @@
         <v>-25268523.50930837</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>9.94</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -19343,9 +19947,11 @@
         <v>-25268300.73110837</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>9.94</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -19417,9 +20023,11 @@
         <v>-25173364.62710837</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>10</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -19454,9 +20062,11 @@
         <v>-25173414.62710837</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>10</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -22414,9 +23024,11 @@
         <v>-25489347.83100836</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -22599,9 +23211,11 @@
         <v>-25715899.44178128</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22636,9 +23250,11 @@
         <v>-25716645.13768128</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22673,9 +23289,11 @@
         <v>-25739985.55348128</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>9.779999999999999</v>
+      </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -22710,9 +23328,11 @@
         <v>-25602712.34128128</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>9.720000000000001</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22747,9 +23367,11 @@
         <v>-25602661.32078128</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>9.789999999999999</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22784,9 +23406,11 @@
         <v>-25602508.87888128</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -22821,9 +23445,11 @@
         <v>-25593654.37208128</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22858,9 +23484,11 @@
         <v>-25593654.37208128</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22895,9 +23523,11 @@
         <v>-25616419.00728128</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -22932,9 +23562,11 @@
         <v>-25616419.00728128</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -22969,9 +23601,11 @@
         <v>-25208887.83168128</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23006,9 +23640,11 @@
         <v>-25567307.01738128</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>9.82</v>
+      </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -23043,9 +23679,11 @@
         <v>-25589054.54998128</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>9.73</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -23080,9 +23718,11 @@
         <v>-26496069.38878128</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -23191,9 +23831,11 @@
         <v>-26348832.63788128</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>9.67</v>
+      </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -23228,9 +23870,11 @@
         <v>-26760100.78638128</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -23265,9 +23909,11 @@
         <v>-25984073.37838128</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -23302,9 +23948,11 @@
         <v>-25963705.37838128</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>9.369999999999999</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23339,9 +23987,11 @@
         <v>-26196916.43358128</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -23376,9 +24026,11 @@
         <v>-26146109.58418128</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>9.59</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23413,9 +24065,11 @@
         <v>-26146109.58418128</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>9.640000000000001</v>
+      </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -23450,9 +24104,11 @@
         <v>-26143072.17158128</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>9.640000000000001</v>
+      </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -23487,9 +24143,11 @@
         <v>-26143021.17158128</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>9.69</v>
+      </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -23524,9 +24182,11 @@
         <v>-26368774.57098128</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>9.82</v>
+      </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
@@ -23561,9 +24221,11 @@
         <v>-26368722.57098128</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>9.59</v>
+      </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -23598,9 +24260,11 @@
         <v>-26365512.83268128</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>9.720000000000001</v>
+      </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -23635,9 +24299,11 @@
         <v>-26681681.50158128</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -23672,9 +24338,11 @@
         <v>-26797112.46988128</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>9.630000000000001</v>
+      </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -23709,9 +24377,11 @@
         <v>-26797112.46988128</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>9.59</v>
+      </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -23746,9 +24416,11 @@
         <v>-26797112.46988128</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>9.59</v>
+      </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -23783,9 +24455,11 @@
         <v>-26849283.24578128</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>9.59</v>
+      </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -23820,9 +24494,11 @@
         <v>-26843791.33538128</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>9.539999999999999</v>
+      </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -23857,9 +24533,11 @@
         <v>-27163800.44488128</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>9.59</v>
+      </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -23894,9 +24572,11 @@
         <v>-27163800.44488128</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>9.390000000000001</v>
+      </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -23931,9 +24611,11 @@
         <v>-26882235.53728128</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>9.390000000000001</v>
+      </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -23968,9 +24650,11 @@
         <v>-25748146.98598128</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>9.52</v>
+      </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -24005,9 +24689,11 @@
         <v>-25773920.49248128</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>9.529999999999999</v>
+      </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -24042,9 +24728,11 @@
         <v>-25721197.86598128</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>9.51</v>
+      </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -24079,9 +24767,11 @@
         <v>-25721197.86598128</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>9.539999999999999</v>
+      </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -24116,9 +24806,11 @@
         <v>-25743804.96908128</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>9.539999999999999</v>
+      </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -24153,9 +24845,11 @@
         <v>-25702041.02338128</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>9.51</v>
+      </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -24190,7 +24884,7 @@
         <v>-25902041.02338128</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>9.619999999999999</v>
@@ -24229,9 +24923,11 @@
         <v>-25901269.02338128</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>9.5</v>
+      </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -24266,9 +24962,11 @@
         <v>-26143254.96908128</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>9.65</v>
+      </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -24303,9 +25001,11 @@
         <v>-26143254.96908128</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>9.5</v>
+      </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -24340,9 +25040,11 @@
         <v>-26131256.96908128</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>9.5</v>
+      </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
@@ -24377,7 +25079,7 @@
         <v>-26132976.96908128</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>9.82</v>
@@ -24416,9 +25118,11 @@
         <v>-26164162.91198128</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>9.76</v>
+      </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -24453,7 +25157,7 @@
         <v>-26164162.91198128</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>9.710000000000001</v>
@@ -24492,9 +25196,11 @@
         <v>-26133594.46908128</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>9.710000000000001</v>
+      </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
@@ -24529,7 +25235,7 @@
         <v>-26135645.46908128</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>9.779999999999999</v>
@@ -24568,9 +25274,11 @@
         <v>-26135645.46908128</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -24605,9 +25313,11 @@
         <v>-26042239.95968128</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -24642,9 +25352,11 @@
         <v>-26042794.95968128</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>9.789999999999999</v>
+      </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -24679,9 +25391,11 @@
         <v>-26042588.95968128</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>9.6</v>
+      </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24716,9 +25430,11 @@
         <v>-26035105.78588128</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>9.76</v>
+      </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -24753,9 +25469,11 @@
         <v>-26434353.10078128</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>9.77</v>
+      </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -24790,9 +25508,11 @@
         <v>-26523449.41378128</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>9.59</v>
+      </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24827,9 +25547,11 @@
         <v>-26523449.41378128</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>9.42</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24864,9 +25586,11 @@
         <v>-26643352.73338128</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>9.42</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24901,9 +25625,11 @@
         <v>-26627433.53056218</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>9.41</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24938,9 +25664,11 @@
         <v>-26632480.51176218</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>9.58</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24975,7 +25703,7 @@
         <v>-26632328.51176218</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>9.390000000000001</v>
@@ -25014,7 +25742,7 @@
         <v>-26792418.80566218</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
         <v>9.42</v>
@@ -25053,7 +25781,7 @@
         <v>-26596475.09616218</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>9.390000000000001</v>
@@ -25092,7 +25820,7 @@
         <v>-26646724.02166218</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
         <v>9.42</v>
@@ -25131,7 +25859,7 @@
         <v>-26646724.02166218</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I722" t="n">
         <v>9.390000000000001</v>
@@ -25170,7 +25898,7 @@
         <v>-26613291.23336218</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I723" t="n">
         <v>9.390000000000001</v>
@@ -25209,7 +25937,7 @@
         <v>-26613624.23336218</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>9.789999999999999</v>
@@ -25248,7 +25976,7 @@
         <v>-26614204.23336218</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>9.640000000000001</v>
@@ -25287,7 +26015,7 @@
         <v>-26614204.23336218</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
         <v>9.630000000000001</v>
@@ -25326,7 +26054,7 @@
         <v>-26624115.56136218</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
         <v>9.630000000000001</v>
@@ -25365,7 +26093,7 @@
         <v>-26619726.56136218</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I728" t="n">
         <v>9.6</v>
@@ -25404,9 +26132,11 @@
         <v>-26619726.56136218</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>9.73</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -25441,9 +26171,11 @@
         <v>-26420593.72076219</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>9.73</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -25478,9 +26210,11 @@
         <v>-26317156.98936218</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>9.82</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -25515,9 +26249,11 @@
         <v>-26322076.25946219</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25552,9 +26288,11 @@
         <v>-26284369.09996219</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>9.82</v>
+      </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -25589,9 +26327,11 @@
         <v>-26284072.09996219</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25626,9 +26366,11 @@
         <v>-26419473.14326219</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25663,9 +26405,11 @@
         <v>-26419473.14326219</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25700,9 +26444,11 @@
         <v>-26419473.14326219</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -25737,9 +26483,11 @@
         <v>-26665280.14816219</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25922,9 +26670,11 @@
         <v>-26502451.73066219</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>9.67</v>
+      </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25959,9 +26709,11 @@
         <v>-26538833.41236218</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>9.869999999999999</v>
+      </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25996,9 +26748,11 @@
         <v>-26571651.35036219</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>9.67</v>
+      </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -26033,9 +26787,11 @@
         <v>-26571651.35036219</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>9.6</v>
+      </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -26070,9 +26826,11 @@
         <v>-26791573.17526219</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>9.6</v>
+      </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -26107,9 +26865,11 @@
         <v>-26702399.45166219</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>9.4</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -26144,9 +26904,11 @@
         <v>-26474617.09636218</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>9.44</v>
+      </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -26181,9 +26943,11 @@
         <v>-26474518.09636218</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>9.57</v>
+      </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -26218,9 +26982,11 @@
         <v>-26609180.24876218</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>9.83</v>
+      </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -26255,9 +27021,11 @@
         <v>-26533223.67056218</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>9.59</v>
+      </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -26292,9 +27060,11 @@
         <v>-26482272.95746218</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>9.640000000000001</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -26329,9 +27099,11 @@
         <v>-26482272.95746218</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>9.66</v>
+      </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -26366,9 +27138,11 @@
         <v>-26520058.11406218</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>9.66</v>
+      </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -26403,9 +27177,11 @@
         <v>-26522617.35696218</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -26440,9 +27216,11 @@
         <v>-26514073.34386218</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>9.52</v>
+      </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -26477,7 +27255,7 @@
         <v>-26520327.78976218</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>9.66</v>
@@ -26516,7 +27294,7 @@
         <v>-26517982.40796218</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>9.619999999999999</v>
@@ -26555,9 +27333,11 @@
         <v>-26011026.07678635</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>9.66</v>
+      </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -26592,9 +27372,11 @@
         <v>-26492124.33508635</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -26629,9 +27411,11 @@
         <v>-26124832.85828635</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -26666,9 +27450,11 @@
         <v>-26125564.85828635</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -26703,9 +27489,11 @@
         <v>-26142946.23718635</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>9.960000000000001</v>
+      </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -26740,9 +27528,11 @@
         <v>-26142946.23718635</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>9.84</v>
+      </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -26777,9 +27567,11 @@
         <v>-26224600.29408635</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>9.84</v>
+      </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -26814,9 +27606,11 @@
         <v>-26070841.32198635</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>9.83</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -26851,9 +27645,11 @@
         <v>-25753777.23928635</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26888,9 +27684,11 @@
         <v>-25650077.70668635</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>9.91</v>
+      </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26925,9 +27723,11 @@
         <v>-25650077.70668635</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -26962,9 +27762,11 @@
         <v>-25697006.87818635</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -26999,9 +27801,11 @@
         <v>-25685597.63138635</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -27036,9 +27840,11 @@
         <v>-25686188.63138635</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -27073,9 +27879,11 @@
         <v>-25686188.63138635</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -27110,9 +27918,11 @@
         <v>-25686188.63138635</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -27147,9 +27957,11 @@
         <v>-25561640.81478635</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>9.92</v>
+      </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -27184,9 +27996,11 @@
         <v>-25561898.24498635</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -27332,9 +28146,11 @@
         <v>-26013771.84178635</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>9.83</v>
+      </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -27369,9 +28185,11 @@
         <v>-26013391.37588635</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -27406,9 +28224,11 @@
         <v>-26013391.37588635</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>9.83</v>
+      </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -27443,9 +28263,11 @@
         <v>-26013000.57838636</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>9.83</v>
+      </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -27517,9 +28339,11 @@
         <v>-26013114.25138636</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>9.82</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -27665,9 +28489,11 @@
         <v>-26051949.97138636</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -27702,9 +28528,11 @@
         <v>-26108044.81393791</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>9.84</v>
+      </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -27739,9 +28567,11 @@
         <v>-26088017.23179877</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>9.83</v>
+      </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -27776,9 +28606,11 @@
         <v>-26089198.47723228</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -27813,9 +28645,11 @@
         <v>-26068231.03113228</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -27850,9 +28684,11 @@
         <v>-26068151.41683228</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>9.83</v>
+      </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -27887,9 +28723,11 @@
         <v>-26067887.32693228</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>9.91</v>
+      </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -27924,9 +28762,11 @@
         <v>-26067887.32693228</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -27961,9 +28801,11 @@
         <v>-25979923.82573228</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27998,9 +28840,11 @@
         <v>-25979923.82573228</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>10</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -28035,9 +28879,11 @@
         <v>-25979923.82573228</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>10</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -28072,9 +28918,11 @@
         <v>-25984811.74423228</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>10</v>
+      </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -28109,9 +28957,11 @@
         <v>-25984811.74423228</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>9.93</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -28146,9 +28996,11 @@
         <v>-25984811.74423228</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>9.93</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -28183,9 +29035,11 @@
         <v>-25973178.73573228</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>9.93</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -28220,9 +29074,11 @@
         <v>-25980070.57303228</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -28257,9 +29113,11 @@
         <v>-25973178.73573228</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>9.94</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -28294,9 +29152,11 @@
         <v>-25973229.73573228</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -28331,9 +29191,11 @@
         <v>-25937512.41163228</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>9.91</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -28368,9 +29230,11 @@
         <v>-25937512.41163228</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -28405,9 +29269,11 @@
         <v>-25937587.10073228</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -28442,9 +29308,11 @@
         <v>-25937254.10073228</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>9.93</v>
+      </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -28479,9 +29347,11 @@
         <v>-25937254.10073228</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>10</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -28516,9 +29386,11 @@
         <v>-25937254.10073228</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>10</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -28553,9 +29425,11 @@
         <v>-25698728.80013228</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>10</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -28590,9 +29464,11 @@
         <v>-25698816.80013228</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>10.1</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -28627,9 +29503,11 @@
         <v>-25698816.80013228</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>10</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -28701,9 +29579,11 @@
         <v>-25698483.80013228</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>10</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -29034,9 +29914,11 @@
         <v>-25821950.83573228</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>9.960000000000001</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -29071,9 +29953,11 @@
         <v>-25815937.71863228</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>9.99</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -29108,9 +29992,11 @@
         <v>-25814277.42983228</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>10</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -29219,9 +30105,11 @@
         <v>-25741551.32733228</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>10</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -29256,9 +30144,11 @@
         <v>-25741768.32733228</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>10.1</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -29293,9 +30183,11 @@
         <v>-25740496.83203228</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>10</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -29330,9 +30222,11 @@
         <v>-25741754.26393228</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>10.1</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -29367,9 +30261,11 @@
         <v>-25741688.26393228</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>10</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -29404,9 +30300,11 @@
         <v>-25741958.26393228</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>10.1</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -35339,6 +36237,6 @@
       <c r="M997" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>